--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/BaseOBM/Inclusão VMP/Medicamentos para VMP.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/BaseOBM/Inclusão VMP/Medicamentos para VMP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ipsnt\OneDrive\Área de Trabalho\Inclusão VMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ips-brasil-documentos\Entregaveis\1.RepositorioSemantico\Terminologias\OBM\BaseOBM\Inclusão VMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="499">
   <si>
     <t>APALUTAMIDA 60 MG COMP REV</t>
   </si>
@@ -1420,7 +1420,112 @@
     <t>https://pro.consultaremedios.com.br/bula/totelle-ciclo</t>
   </si>
   <si>
-    <t>Medicamentos na Hórus que estão na CMED para inclusão de VMP  n = 148  até 14/06/2023</t>
+    <t>Descrição VMP</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>Revisado</t>
+  </si>
+  <si>
+    <t>ÁCIDO FÓLICO + FERRO AMINOÁCIDO QUELATO 5 MG + 150 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>Ácido Fólico 5 mg + Ferroaminoácido quelato 150 mg comprimido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPRIMIDO REVESTIDO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma do sal de ferro está diferente na bula. Porém, ferro elementar está igual </t>
+  </si>
+  <si>
+    <t>https://img.drogasil.com.br/raiadrogasil_bula/Folifer-Arese.pdf                       https://www.ems.com.br/arquivos/produtos/bulas/bula_glicinato_ferrico_acido_folico__1872.pdf</t>
+  </si>
+  <si>
+    <t>ÁCIDO VALPRÓICO (VALPROATO DE SÓDIO)  300 MG COMPRIMIDO RETARD</t>
+  </si>
+  <si>
+    <t>Valproato de sódio 300 mg comprimido retard</t>
+  </si>
+  <si>
+    <t>https://pro.consultaremedios.com.br/bula/valproato-de-sodio-prati-donaduzzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALECTINIBE 150 MG CÁPSULA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloridrato de Alectinibe 150mg cápsula </t>
+  </si>
+  <si>
+    <t>CÁPSULA DURA</t>
+  </si>
+  <si>
+    <t>https://www.novamedicamentos.com.br/media/catalog/product//b/u/bula_alecensa_1.pdf</t>
+  </si>
+  <si>
+    <t>ALENDRONATO DE SÓDIO + CARBONATO DE CÁLCIO + COLECALCIFEROL 70 MG + 500 MG + 200 UI COMPRIMIDO</t>
+  </si>
+  <si>
+    <t>Ácido Alendrônico 70 mg  comprimido e Carbonato de Cálcio 500 + Colecalciferol 2000UI  comprimido revestido</t>
+  </si>
+  <si>
+    <t>COMPRIMIDO + COMPRIMIDO REVESTIDO</t>
+  </si>
+  <si>
+    <t>Acrescentar "revestido" ao segundo comprimido?</t>
+  </si>
+  <si>
+    <t>https://img.drogasil.com.br/raiadrogasil_bula/AlendilCalcioDFarmoquimica.pdf</t>
+  </si>
+  <si>
+    <t>ALFAVESTRONIDASE 2 MG/ML SOLUÇÃO INJETÁVEL 5 ML GRUPO 1.A</t>
+  </si>
+  <si>
+    <t>Alfavestronidase 2MG/ML SOLUÇÃO INJETÁVEL</t>
+  </si>
+  <si>
+    <t>INTRAVENOSA</t>
+  </si>
+  <si>
+    <t>Descrição deve ser 2mg/mL ou 10 mg/5mL ?</t>
+  </si>
+  <si>
+    <t>https://www.ultragenyx.com/wp-content/uploads/2023/02/Mepsevii_BULA-PARA-PROFISSIONAIS.pdf</t>
+  </si>
+  <si>
+    <t>AMBROXOL, CLORIDRATO 7,5 MG/ML SOLUÇÃO ORAL 50 ML</t>
+  </si>
+  <si>
+    <t>Ambroxol 7,5mg/ml solução oral</t>
+  </si>
+  <si>
+    <t>Corrigir o portal para "solução oral"</t>
+  </si>
+  <si>
+    <t>https://www.chiesi.com.br/img/prodotti/documenti/571_fluibron_sol_or_100580039_vps7.pdf</t>
+  </si>
+  <si>
+    <t>Medicamentos na Hórus que estão na CMED para inclusão de VMP  n = 155  até 16/06/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GINKGO BILOBA 40 MG CÁPSULA  </t>
+  </si>
+  <si>
+    <t>Ginkgo biloba 40 mg cápsula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÁPSULA DURA </t>
+  </si>
+  <si>
+    <t>https://herbarium.com.br/wp-content/uploads/2019/09/bula-ginkgo-herbarium.pdf</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1564,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1484,12 +1589,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1504,14 +1603,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1521,6 +1622,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1551,13 +1653,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A2:E150" totalsRowShown="0">
-  <autoFilter ref="A2:E150"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A2:G157" totalsRowShown="0">
+  <autoFilter ref="A2:G157"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Medicamentos Hórus"/>
+    <tableColumn id="6" name="Descrição VMP"/>
     <tableColumn id="3" name="Forma farmacêutica "/>
     <tableColumn id="4" name="Via de administração"/>
     <tableColumn id="2" name="Observação"/>
+    <tableColumn id="8" name="Revisado"/>
     <tableColumn id="5" name="Bulas"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1849,944 +1953,1330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="71.5546875" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
-    <col min="5" max="5" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="100.77734375" customWidth="1"/>
+    <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
       <c r="B2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" t="s">
         <v>275</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>276</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>272</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G2" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="M2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" t="s">
         <v>277</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>301</v>
       </c>
       <c r="E3" t="s">
+        <v>498</v>
+      </c>
+      <c r="G3" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="M3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C4" t="s">
         <v>277</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>301</v>
       </c>
       <c r="E4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C5" t="s">
         <v>279</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>301</v>
       </c>
       <c r="E5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C6" t="s">
         <v>385</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>301</v>
       </c>
       <c r="E6" t="s">
+        <v>498</v>
+      </c>
+      <c r="G6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" t="s">
         <v>382</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>301</v>
       </c>
       <c r="E7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C8" t="s">
         <v>298</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>387</v>
       </c>
       <c r="E8" t="s">
+        <v>498</v>
+      </c>
+      <c r="G8" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C9" t="s">
         <v>298</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>387</v>
       </c>
       <c r="E9" t="s">
+        <v>498</v>
+      </c>
+      <c r="G9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C10" t="s">
         <v>324</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>295</v>
       </c>
       <c r="E10" t="s">
+        <v>498</v>
+      </c>
+      <c r="G10" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C11" t="s">
         <v>281</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>301</v>
       </c>
       <c r="E11" t="s">
+        <v>498</v>
+      </c>
+      <c r="G11" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C12" t="s">
         <v>279</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>301</v>
       </c>
       <c r="E12" t="s">
+        <v>498</v>
+      </c>
+      <c r="G12" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C13" t="s">
         <v>282</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>301</v>
       </c>
       <c r="E13" t="s">
+        <v>498</v>
+      </c>
+      <c r="G13" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C14" t="s">
         <v>277</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>301</v>
       </c>
       <c r="E14" t="s">
+        <v>498</v>
+      </c>
+      <c r="G14" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C15" t="s">
         <v>277</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>301</v>
       </c>
       <c r="E15" t="s">
+        <v>498</v>
+      </c>
+      <c r="G15" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C16" t="s">
         <v>395</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>295</v>
       </c>
       <c r="E16" t="s">
+        <v>498</v>
+      </c>
+      <c r="G16" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C17" t="s">
         <v>283</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>310</v>
       </c>
       <c r="E17" t="s">
+        <v>498</v>
+      </c>
+      <c r="G17" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C18" t="s">
         <v>283</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>455</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>296</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C19" t="s">
         <v>283</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>310</v>
       </c>
       <c r="E19" t="s">
+        <v>498</v>
+      </c>
+      <c r="G19" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C20" t="s">
         <v>298</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>313</v>
       </c>
       <c r="E20" t="s">
+        <v>498</v>
+      </c>
+      <c r="G20" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C21" t="s">
         <v>284</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>400</v>
       </c>
       <c r="E21" t="s">
+        <v>498</v>
+      </c>
+      <c r="G21" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C22" t="s">
         <v>280</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>301</v>
       </c>
       <c r="E22" t="s">
+        <v>498</v>
+      </c>
+      <c r="G22" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C23" t="s">
         <v>453</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>287</v>
       </c>
       <c r="E23" t="s">
+        <v>498</v>
+      </c>
+      <c r="G23" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C24" t="s">
         <v>280</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>301</v>
       </c>
       <c r="E24" t="s">
+        <v>498</v>
+      </c>
+      <c r="G24" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C25" t="s">
         <v>282</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>301</v>
       </c>
       <c r="E25" t="s">
+        <v>498</v>
+      </c>
+      <c r="G25" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C26" t="s">
         <v>285</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>290</v>
       </c>
       <c r="E26" t="s">
+        <v>498</v>
+      </c>
+      <c r="G26" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C27" t="s">
         <v>286</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>287</v>
       </c>
       <c r="E27" t="s">
+        <v>498</v>
+      </c>
+      <c r="G27" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C28" t="s">
         <v>288</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>290</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" t="s">
+        <v>498</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C29" t="s">
         <v>286</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>290</v>
       </c>
       <c r="E29" t="s">
+        <v>498</v>
+      </c>
+      <c r="G29" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C30" t="s">
         <v>292</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>293</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
+        <v>498</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C31" t="s">
         <v>278</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>295</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>296</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C32" t="s">
         <v>297</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>299</v>
       </c>
       <c r="E32" t="s">
+        <v>498</v>
+      </c>
+      <c r="G32" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C33" t="s">
         <v>280</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>301</v>
       </c>
       <c r="E33" t="s">
+        <v>498</v>
+      </c>
+      <c r="G33" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C34" t="s">
         <v>277</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>301</v>
       </c>
       <c r="E34" t="s">
+        <v>498</v>
+      </c>
+      <c r="G34" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C35" t="s">
         <v>277</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>301</v>
       </c>
       <c r="E35" t="s">
+        <v>498</v>
+      </c>
+      <c r="G35" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C36" t="s">
         <v>277</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>301</v>
       </c>
       <c r="E36" t="s">
+        <v>498</v>
+      </c>
+      <c r="G36" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>53</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C37" t="s">
         <v>305</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>295</v>
       </c>
       <c r="E37" t="s">
+        <v>498</v>
+      </c>
+      <c r="G37" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C38" t="s">
         <v>277</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>301</v>
       </c>
       <c r="E38" t="s">
+        <v>498</v>
+      </c>
+      <c r="G38" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C39" t="s">
         <v>277</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>301</v>
       </c>
       <c r="E39" t="s">
+        <v>498</v>
+      </c>
+      <c r="G39" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>56</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C40" t="s">
         <v>277</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>301</v>
       </c>
       <c r="E40" t="s">
+        <v>498</v>
+      </c>
+      <c r="G40" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>57</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C41" t="s">
         <v>277</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>301</v>
       </c>
       <c r="E41" t="s">
+        <v>498</v>
+      </c>
+      <c r="G41" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>58</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C42" t="s">
         <v>277</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>301</v>
       </c>
       <c r="E42" t="s">
+        <v>498</v>
+      </c>
+      <c r="G42" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>59</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C43" t="s">
         <v>309</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>310</v>
       </c>
       <c r="E43" t="s">
+        <v>498</v>
+      </c>
+      <c r="G43" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>60</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C44" t="s">
         <v>280</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>301</v>
       </c>
       <c r="E44" t="s">
+        <v>498</v>
+      </c>
+      <c r="G44" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>66</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C45" t="s">
         <v>298</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>313</v>
       </c>
       <c r="E45" t="s">
+        <v>498</v>
+      </c>
+      <c r="G45" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>67</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C46" t="s">
         <v>298</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>313</v>
       </c>
       <c r="E46" t="s">
+        <v>498</v>
+      </c>
+      <c r="G46" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>68</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C47" t="s">
         <v>298</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>313</v>
       </c>
       <c r="E47" t="s">
+        <v>498</v>
+      </c>
+      <c r="G47" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>69</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C48" t="s">
         <v>298</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>295</v>
       </c>
       <c r="E48" t="s">
+        <v>498</v>
+      </c>
+      <c r="G48" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>72</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C49" t="s">
         <v>316</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>301</v>
       </c>
       <c r="E49" t="s">
+        <v>498</v>
+      </c>
+      <c r="G49" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>82</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C50" t="s">
         <v>277</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>301</v>
       </c>
       <c r="E50" t="s">
+        <v>498</v>
+      </c>
+      <c r="G50" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>90</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C51" t="s">
         <v>277</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>301</v>
       </c>
       <c r="E51" t="s">
+        <v>498</v>
+      </c>
+      <c r="G51" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>91</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C52" t="s">
         <v>297</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>320</v>
       </c>
       <c r="E52" t="s">
+        <v>498</v>
+      </c>
+      <c r="G52" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>97</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C53" t="s">
         <v>280</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>301</v>
       </c>
       <c r="E53" t="s">
+        <v>498</v>
+      </c>
+      <c r="G53" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>104</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C54" t="s">
         <v>322</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>295</v>
       </c>
       <c r="E54" t="s">
+        <v>498</v>
+      </c>
+      <c r="G54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>105</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C55" t="s">
         <v>324</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>295</v>
       </c>
       <c r="E55" t="s">
+        <v>498</v>
+      </c>
+      <c r="G55" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>111</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C56" t="s">
         <v>326</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>301</v>
       </c>
       <c r="E56" t="s">
+        <v>498</v>
+      </c>
+      <c r="G56" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>115</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C57" t="s">
         <v>329</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>301</v>
       </c>
       <c r="E57" t="s">
+        <v>498</v>
+      </c>
+      <c r="G57" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C58" t="s">
         <v>333</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>299</v>
       </c>
       <c r="E58" t="s">
+        <v>498</v>
+      </c>
+      <c r="G58" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>117</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C59" t="s">
         <v>297</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>299</v>
       </c>
       <c r="E59" t="s">
+        <v>498</v>
+      </c>
+      <c r="G59" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>118</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C60" t="s">
         <v>297</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>299</v>
       </c>
       <c r="E60" t="s">
+        <v>498</v>
+      </c>
+      <c r="G60" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>119</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C61" t="s">
         <v>326</v>
       </c>
-      <c r="C61" t="s">
-        <v>301</v>
-      </c>
       <c r="D61" t="s">
+        <v>301</v>
+      </c>
+      <c r="E61" t="s">
         <v>296</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>120</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C62" t="s">
         <v>298</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>295</v>
       </c>
       <c r="E62" t="s">
+        <v>498</v>
+      </c>
+      <c r="G62" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>123</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C63" t="s">
         <v>280</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>301</v>
       </c>
       <c r="E63" t="s">
+        <v>498</v>
+      </c>
+      <c r="G63" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>124</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C64" t="s">
         <v>280</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>301</v>
       </c>
       <c r="E64" t="s">
+        <v>498</v>
+      </c>
+      <c r="G64" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C65" t="s">
         <v>339</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>340</v>
       </c>
       <c r="E65" t="s">
+        <v>498</v>
+      </c>
+      <c r="G65" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>131</v>
       </c>
-      <c r="B66" t="s">
-        <v>330</v>
+      <c r="B66" s="8" t="s">
+        <v>498</v>
       </c>
       <c r="C66" t="s">
         <v>330</v>
@@ -2797,1196 +3287,1842 @@
       <c r="E66" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>135</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C67" t="s">
         <v>298</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>342</v>
       </c>
       <c r="E67" t="s">
+        <v>498</v>
+      </c>
+      <c r="G67" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C68" t="s">
         <v>277</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>301</v>
       </c>
       <c r="E68" t="s">
+        <v>498</v>
+      </c>
+      <c r="G68" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C69" t="s">
         <v>346</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>301</v>
       </c>
       <c r="E69" t="s">
+        <v>498</v>
+      </c>
+      <c r="G69" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>139</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C70" t="s">
         <v>346</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>301</v>
       </c>
       <c r="E70" t="s">
+        <v>498</v>
+      </c>
+      <c r="G70" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>140</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C71" t="s">
         <v>346</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>301</v>
       </c>
       <c r="E71" t="s">
+        <v>498</v>
+      </c>
+      <c r="G71" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>141</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C72" t="s">
         <v>346</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>301</v>
       </c>
       <c r="E72" t="s">
+        <v>498</v>
+      </c>
+      <c r="G72" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>142</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C73" t="s">
         <v>346</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>301</v>
       </c>
       <c r="E73" t="s">
+        <v>498</v>
+      </c>
+      <c r="G73" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>143</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C74" t="s">
         <v>350</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>301</v>
       </c>
       <c r="E74" t="s">
+        <v>498</v>
+      </c>
+      <c r="G74" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>144</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C75" t="s">
         <v>282</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>301</v>
       </c>
       <c r="E75" t="s">
+        <v>498</v>
+      </c>
+      <c r="G75" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>145</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C76" t="s">
         <v>346</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>301</v>
       </c>
       <c r="E76" t="s">
+        <v>498</v>
+      </c>
+      <c r="G76" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>146</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C77" t="s">
         <v>346</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>301</v>
       </c>
       <c r="E77" t="s">
+        <v>498</v>
+      </c>
+      <c r="G77" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>148</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C78" t="s">
         <v>277</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>301</v>
       </c>
       <c r="E78" t="s">
+        <v>498</v>
+      </c>
+      <c r="G78" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>150</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C79" t="s">
         <v>354</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>295</v>
       </c>
       <c r="E79" t="s">
+        <v>498</v>
+      </c>
+      <c r="G79" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>151</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C80" t="s">
         <v>356</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>295</v>
       </c>
       <c r="E80" t="s">
+        <v>498</v>
+      </c>
+      <c r="G80" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>152</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C81" t="s">
         <v>356</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>295</v>
       </c>
       <c r="E81" t="s">
+        <v>498</v>
+      </c>
+      <c r="G81" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>153</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C82" t="s">
         <v>305</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>295</v>
       </c>
       <c r="E82" t="s">
+        <v>498</v>
+      </c>
+      <c r="G82" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>154</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C83" t="s">
         <v>360</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>295</v>
       </c>
       <c r="E83" t="s">
+        <v>498</v>
+      </c>
+      <c r="G83" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>155</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C84" t="s">
         <v>360</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>362</v>
       </c>
       <c r="E84" t="s">
+        <v>498</v>
+      </c>
+      <c r="G84" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>156</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C85" t="s">
         <v>360</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>362</v>
       </c>
       <c r="E85" t="s">
+        <v>498</v>
+      </c>
+      <c r="G85" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>157</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C86" t="s">
         <v>360</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>362</v>
       </c>
       <c r="E86" t="s">
+        <v>498</v>
+      </c>
+      <c r="G86" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>159</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C87" t="s">
         <v>360</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>363</v>
       </c>
       <c r="E87" t="s">
+        <v>498</v>
+      </c>
+      <c r="G87" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>160</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C88" t="s">
         <v>279</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>301</v>
       </c>
       <c r="E88" t="s">
+        <v>498</v>
+      </c>
+      <c r="G88" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>161</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C89" t="s">
         <v>279</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>301</v>
       </c>
       <c r="E89" t="s">
+        <v>498</v>
+      </c>
+      <c r="G89" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>162</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C90" t="s">
         <v>298</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>366</v>
       </c>
       <c r="E90" t="s">
+        <v>498</v>
+      </c>
+      <c r="G90" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>163</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C91" t="s">
         <v>298</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>366</v>
       </c>
       <c r="E91" t="s">
+        <v>498</v>
+      </c>
+      <c r="G91" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>164</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C92" t="s">
         <v>298</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>367</v>
       </c>
       <c r="E92" t="s">
+        <v>498</v>
+      </c>
+      <c r="G92" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>165</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C93" t="s">
         <v>298</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>367</v>
       </c>
       <c r="E93" t="s">
+        <v>498</v>
+      </c>
+      <c r="G93" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>175</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C94" t="s">
         <v>368</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>301</v>
       </c>
       <c r="E94" t="s">
+        <v>498</v>
+      </c>
+      <c r="G94" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>178</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C95" t="s">
         <v>277</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>301</v>
       </c>
       <c r="E95" t="s">
+        <v>498</v>
+      </c>
+      <c r="G95" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>181</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C96" t="s">
         <v>277</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>301</v>
       </c>
       <c r="E96" t="s">
+        <v>498</v>
+      </c>
+      <c r="G96" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>183</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C97" t="s">
         <v>277</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>301</v>
       </c>
       <c r="E97" t="s">
+        <v>498</v>
+      </c>
+      <c r="G97" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>184</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C98" t="s">
         <v>298</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>374</v>
       </c>
       <c r="E98" t="s">
+        <v>498</v>
+      </c>
+      <c r="G98" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>185</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C99" t="s">
         <v>376</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>301</v>
       </c>
       <c r="E99" t="s">
+        <v>498</v>
+      </c>
+      <c r="G99" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>188</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C100" t="s">
         <v>373</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>378</v>
       </c>
       <c r="E100" t="s">
+        <v>498</v>
+      </c>
+      <c r="G100" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C101" t="s">
         <v>298</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>402</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>460</v>
       </c>
-      <c r="E101" t="s">
+      <c r="G101" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>190</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C102" t="s">
         <v>404</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>301</v>
       </c>
       <c r="E102" t="s">
+        <v>498</v>
+      </c>
+      <c r="G102" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>191</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C103" t="s">
         <v>406</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>407</v>
       </c>
       <c r="E103" t="s">
+        <v>498</v>
+      </c>
+      <c r="G103" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>192</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C104" t="s">
         <v>298</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>409</v>
       </c>
       <c r="E104" t="s">
+        <v>498</v>
+      </c>
+      <c r="G104" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>196</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C105" t="s">
         <v>277</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>301</v>
       </c>
       <c r="E105" t="s">
+        <v>498</v>
+      </c>
+      <c r="G105" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>200</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C106" t="s">
         <v>277</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>301</v>
       </c>
       <c r="E106" t="s">
+        <v>498</v>
+      </c>
+      <c r="G106" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>202</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C107" t="s">
         <v>298</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>295</v>
       </c>
       <c r="E107" t="s">
+        <v>498</v>
+      </c>
+      <c r="G107" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>203</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C108" t="s">
         <v>298</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>295</v>
       </c>
       <c r="E108" t="s">
+        <v>498</v>
+      </c>
+      <c r="G108" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>204</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C109" t="s">
         <v>415</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>301</v>
       </c>
       <c r="E109" t="s">
+        <v>498</v>
+      </c>
+      <c r="G109" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>205</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C110" t="s">
         <v>298</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>313</v>
       </c>
       <c r="E110" t="s">
+        <v>498</v>
+      </c>
+      <c r="G110" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>206</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C111" t="s">
         <v>298</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>313</v>
       </c>
       <c r="E111" t="s">
+        <v>498</v>
+      </c>
+      <c r="G111" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>208</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C112" t="s">
         <v>277</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>301</v>
       </c>
       <c r="E112" t="s">
+        <v>498</v>
+      </c>
+      <c r="G112" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>209</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C113" t="s">
         <v>277</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>301</v>
       </c>
       <c r="E113" t="s">
+        <v>498</v>
+      </c>
+      <c r="G113" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>210</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C114" t="s">
         <v>277</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>301</v>
       </c>
       <c r="E114" t="s">
+        <v>498</v>
+      </c>
+      <c r="G114" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>212</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C115" t="s">
         <v>420</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>295</v>
       </c>
       <c r="E115" t="s">
+        <v>498</v>
+      </c>
+      <c r="G115" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>213</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C116" t="s">
         <v>420</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>295</v>
       </c>
       <c r="E116" t="s">
+        <v>498</v>
+      </c>
+      <c r="G116" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>214</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C117" t="s">
         <v>298</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>313</v>
       </c>
       <c r="E117" t="s">
+        <v>498</v>
+      </c>
+      <c r="G117" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>215</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C118" t="s">
         <v>298</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>313</v>
       </c>
       <c r="E118" t="s">
+        <v>498</v>
+      </c>
+      <c r="G118" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>216</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C119" t="s">
         <v>298</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>313</v>
       </c>
       <c r="E119" t="s">
+        <v>498</v>
+      </c>
+      <c r="G119" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>217</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C120" t="s">
         <v>298</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>313</v>
       </c>
       <c r="E120" t="s">
+        <v>498</v>
+      </c>
+      <c r="G120" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>218</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C121" t="s">
         <v>277</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>301</v>
       </c>
       <c r="E121" t="s">
+        <v>498</v>
+      </c>
+      <c r="G121" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>219</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C122" t="s">
         <v>277</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>301</v>
       </c>
       <c r="E122" t="s">
+        <v>498</v>
+      </c>
+      <c r="G122" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>220</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C123" t="s">
         <v>277</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>301</v>
       </c>
       <c r="E123" t="s">
+        <v>498</v>
+      </c>
+      <c r="G123" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>229</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C124" t="s">
         <v>277</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>301</v>
       </c>
       <c r="E124" t="s">
+        <v>498</v>
+      </c>
+      <c r="G124" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>230</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C125" t="s">
         <v>277</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>301</v>
       </c>
       <c r="E125" t="s">
+        <v>498</v>
+      </c>
+      <c r="G125" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C126" t="s">
         <v>277</v>
       </c>
-      <c r="C126" t="s">
-        <v>301</v>
-      </c>
       <c r="D126" t="s">
+        <v>301</v>
+      </c>
+      <c r="E126" t="s">
         <v>461</v>
       </c>
-      <c r="E126" t="s">
+      <c r="G126" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>233</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C127" t="s">
         <v>427</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>287</v>
       </c>
       <c r="E127" t="s">
+        <v>498</v>
+      </c>
+      <c r="G127" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>234</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C128" t="s">
         <v>277</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>301</v>
       </c>
       <c r="E128" t="s">
+        <v>498</v>
+      </c>
+      <c r="G128" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>235</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C129" t="s">
         <v>277</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>301</v>
       </c>
       <c r="E129" t="s">
+        <v>498</v>
+      </c>
+      <c r="G129" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>236</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C130" t="s">
         <v>420</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>313</v>
       </c>
       <c r="E130" t="s">
+        <v>498</v>
+      </c>
+      <c r="G130" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>237</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C131" t="s">
         <v>298</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>313</v>
       </c>
       <c r="E131" t="s">
+        <v>498</v>
+      </c>
+      <c r="G131" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>238</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C132" t="s">
         <v>298</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>313</v>
       </c>
       <c r="E132" t="s">
+        <v>498</v>
+      </c>
+      <c r="G132" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>239</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C133" t="s">
         <v>277</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>301</v>
       </c>
       <c r="E133" t="s">
+        <v>498</v>
+      </c>
+      <c r="G133" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>240</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C134" t="s">
         <v>277</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>301</v>
       </c>
       <c r="E134" t="s">
+        <v>498</v>
+      </c>
+      <c r="G134" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>242</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C135" t="s">
         <v>434</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>301</v>
       </c>
       <c r="E135" t="s">
+        <v>498</v>
+      </c>
+      <c r="G135" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>243</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C136" t="s">
         <v>277</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>301</v>
       </c>
       <c r="E136" t="s">
+        <v>498</v>
+      </c>
+      <c r="G136" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>244</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C137" t="s">
         <v>277</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>301</v>
       </c>
       <c r="E137" t="s">
+        <v>498</v>
+      </c>
+      <c r="G137" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>245</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C138" t="s">
         <v>298</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>409</v>
       </c>
       <c r="E138" t="s">
+        <v>498</v>
+      </c>
+      <c r="G138" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>246</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C139" t="s">
         <v>298</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>409</v>
       </c>
       <c r="E139" t="s">
+        <v>498</v>
+      </c>
+      <c r="G139" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>247</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C140" t="s">
         <v>298</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>409</v>
       </c>
       <c r="E140" t="s">
+        <v>498</v>
+      </c>
+      <c r="G140" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>249</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C141" t="s">
         <v>277</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>301</v>
       </c>
       <c r="E141" t="s">
+        <v>498</v>
+      </c>
+      <c r="G141" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>253</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C142" t="s">
         <v>277</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>301</v>
       </c>
       <c r="E142" t="s">
+        <v>498</v>
+      </c>
+      <c r="G142" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>254</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C143" t="s">
         <v>277</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>301</v>
       </c>
       <c r="E143" t="s">
+        <v>498</v>
+      </c>
+      <c r="G143" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>257</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C144" t="s">
         <v>277</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>301</v>
       </c>
       <c r="E144" t="s">
+        <v>498</v>
+      </c>
+      <c r="G144" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>258</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C145" t="s">
         <v>277</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>301</v>
       </c>
       <c r="E145" t="s">
+        <v>498</v>
+      </c>
+      <c r="G145" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>259</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C146" t="s">
         <v>445</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>446</v>
       </c>
       <c r="E146" t="s">
+        <v>498</v>
+      </c>
+      <c r="G146" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>260</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C147" t="s">
         <v>277</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>301</v>
       </c>
       <c r="E147" t="s">
+        <v>498</v>
+      </c>
+      <c r="G147" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>261</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C148" t="s">
         <v>277</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>301</v>
       </c>
       <c r="E148" t="s">
+        <v>498</v>
+      </c>
+      <c r="G148" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>262</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C149" t="s">
         <v>277</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>301</v>
       </c>
       <c r="E149" t="s">
+        <v>498</v>
+      </c>
+      <c r="G149" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>268</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C150" t="s">
         <v>368</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>301</v>
       </c>
       <c r="E150" t="s">
+        <v>498</v>
+      </c>
+      <c r="G150" t="s">
         <v>456</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>467</v>
+      </c>
+      <c r="B151" t="s">
+        <v>468</v>
+      </c>
+      <c r="C151" t="s">
+        <v>469</v>
+      </c>
+      <c r="D151" t="s">
+        <v>301</v>
+      </c>
+      <c r="E151" t="s">
+        <v>470</v>
+      </c>
+      <c r="G151" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>472</v>
+      </c>
+      <c r="B152" t="s">
+        <v>473</v>
+      </c>
+      <c r="C152" t="s">
+        <v>277</v>
+      </c>
+      <c r="D152" t="s">
+        <v>301</v>
+      </c>
+      <c r="E152" t="s">
+        <v>498</v>
+      </c>
+      <c r="G152" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>475</v>
+      </c>
+      <c r="B153" t="s">
+        <v>476</v>
+      </c>
+      <c r="C153" t="s">
+        <v>477</v>
+      </c>
+      <c r="D153" t="s">
+        <v>301</v>
+      </c>
+      <c r="E153" t="s">
+        <v>498</v>
+      </c>
+      <c r="G153" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>479</v>
+      </c>
+      <c r="B154" t="s">
+        <v>480</v>
+      </c>
+      <c r="C154" t="s">
+        <v>481</v>
+      </c>
+      <c r="D154" t="s">
+        <v>301</v>
+      </c>
+      <c r="E154" t="s">
+        <v>482</v>
+      </c>
+      <c r="G154" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>484</v>
+      </c>
+      <c r="B155" t="s">
+        <v>485</v>
+      </c>
+      <c r="C155" t="s">
+        <v>298</v>
+      </c>
+      <c r="D155" t="s">
+        <v>486</v>
+      </c>
+      <c r="E155" t="s">
+        <v>487</v>
+      </c>
+      <c r="G155" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>489</v>
+      </c>
+      <c r="B156" t="s">
+        <v>490</v>
+      </c>
+      <c r="C156" t="s">
+        <v>282</v>
+      </c>
+      <c r="D156" t="s">
+        <v>301</v>
+      </c>
+      <c r="E156" t="s">
+        <v>491</v>
+      </c>
+      <c r="G156" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>494</v>
+      </c>
+      <c r="B157" t="s">
+        <v>495</v>
+      </c>
+      <c r="C157" t="s">
+        <v>496</v>
+      </c>
+      <c r="D157" t="s">
+        <v>301</v>
+      </c>
+      <c r="E157" t="s">
+        <v>498</v>
+      </c>
+      <c r="G157" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F157">
+      <formula1>$M$2:$M$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E28" r:id="rId1"/>
-    <hyperlink ref="E30" r:id="rId2"/>
+    <hyperlink ref="G28" r:id="rId1"/>
+    <hyperlink ref="G30" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/BaseOBM/Inclusão VMP/Medicamentos para VMP.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/BaseOBM/Inclusão VMP/Medicamentos para VMP.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Total" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Total!$A$2:$B$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Total!$A$2:$B$312</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="559">
   <si>
     <t>APALUTAMIDA 60 MG COMP REV</t>
   </si>
@@ -43,9 +43,6 @@
     <t xml:space="preserve">ARIPIPRAZOL 20 MG SUSPENSÃO </t>
   </si>
   <si>
-    <t xml:space="preserve">ARIPIPRAZOL 30 MG COMPRIMIDO </t>
-  </si>
-  <si>
     <t>ARTICAÍNA ASSOCIADA COM EPINEFRINA 4 % + 1/200.000 SOLUÇÃO INJETÁVEL 1,8 ML</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t xml:space="preserve">BACILLUS CEREUS 1.000.000 </t>
   </si>
   <si>
-    <t xml:space="preserve">BAMBUTEROL, CLORIDRATO 1 MG/ML SOL ORAL </t>
-  </si>
-  <si>
     <t>BAMIFILINA, CLORIDRATO 300 MG COMPRIMIDO</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>BARICITINIBE 4 MG COMPRIMIDO</t>
   </si>
   <si>
-    <t xml:space="preserve">BASILIXIMABE 20 MG PÓ LIOFILIZADO </t>
-  </si>
-  <si>
     <t xml:space="preserve">BECLOMETASONA DIPROPIONATO, ASSOC. C, BROMETO GLICOPIRRÔNIO E FORMOTEROL 100 + 12,5 + 6  MCG AEROSSOL ORAL 120 DOSES </t>
   </si>
   <si>
@@ -118,42 +109,12 @@
     <t>BENRALIZUMABE 30 MG/ML SOL INJ (SER PREENC) 1 ML</t>
   </si>
   <si>
-    <t>BENZIDAMINA, CLORIDRATO 1,5 MG/ML SPRAY ORAL 30 ML</t>
-  </si>
-  <si>
-    <t>BENZNIDAZOL 12,5 MG COMPRIMIDO</t>
-  </si>
-  <si>
-    <t>BENZOATO DE BENZILA 250 MG/ML EMULSÃO TÓPICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENZOATO DE BENZILA 250 MG/ML EMULSÃO TÓPICA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BETAMETASONA 0,5 MG COMPRIMIDO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BETAMETASONA 0,5 MG/ML SOLUÇÃO ORAL  15 ML </t>
-  </si>
-  <si>
     <t>BETAMETASONA, DEXCLORFE NIRAMINA MALEATO 2MG 0,25MG  COMP</t>
   </si>
   <si>
-    <t xml:space="preserve">BETAMETASONA, DIPROPIONATO + ÁCIDO SALICÍLICO (0,64 + 20) MG/ML SOLUÇÃO TÓPICA 30 ML </t>
-  </si>
-  <si>
-    <t>BETAMETASONA, DIPROPIONATO + ÁCIDO SALICÍLICO 0,5MG (equivalente 0,64mg) + 30MG/G POMADA 30 G</t>
-  </si>
-  <si>
     <t xml:space="preserve">BETAMETASONA, DIPROPIONATO + CALCIPOTRIOL 0,05 + 0,5 MG/G POMADA 30 G </t>
   </si>
   <si>
-    <t xml:space="preserve">BETAMETASONA, DIPROPIONATO + GENTAMICINA SULFATO 0,5 + 1 MG/G CREME  30 G </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BETAMETASONA, DIPROPIONATO + GENTAMICINA SULFATO 0,5 + 1 MG/G POMADA 30 G </t>
-  </si>
-  <si>
     <t>BETAMETASONA, DIPROPIONATO + GENTAMICINA SULFATO 1 + 3 MG/ML SOLUÇÃO OTO-OFTÁLMICA 10 ML</t>
   </si>
   <si>
@@ -166,9 +127,6 @@
     <t xml:space="preserve">BEVACIZUMABE 25 MG/ML SOLUÇÃO INJETÁVEL  </t>
   </si>
   <si>
-    <t>BIMATOPROSTA + TIMOLOL 0,03 + 0,5 MG/ML SOLUÇÃO OFTÁLMICA</t>
-  </si>
-  <si>
     <t xml:space="preserve">BIMATOPROSTA + TIMOLOL 00,3MG/ML + 0,5MG/ML SOLUÇÃO OFTÁLMICA </t>
   </si>
   <si>
@@ -181,15 +139,6 @@
     <t>BISOPROLOL FUMARATO, ASSOCIADO AO ANLODIPINO 10 MG + 5 MG COMPRIMIDO</t>
   </si>
   <si>
-    <t>BISOPROLOL, FUMARATO + HIDROCLOROTIAZIDA 2,5 + 6,25 MG COMPRIMIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BISOPROLOL, FUMARATO + HIDROCLOROTIAZIDA 5 + 6,25 MG COMPRIMIDO </t>
-  </si>
-  <si>
-    <t>BISOPROLOL, FUMARATO + HIDROCLOROTIAZIDA 5 MG + 12,5  MG COMPRIMIDO</t>
-  </si>
-  <si>
     <t>BLINATUMOMABE 38,5 MCG PÓ LIOF INJ (FR-AMP)</t>
   </si>
   <si>
@@ -211,9 +160,6 @@
     <t xml:space="preserve">BROMETO DE TIOTRÓPIO MONOIDRATADO + CLORIDRATO DE OLODATEROL 2,5 + 2,5 MCG SOLUÇÃO PARA INALAÇÃO GRUPO 1.B </t>
   </si>
   <si>
-    <t xml:space="preserve">BROMOCRIPTINA 2,5 MG COMP </t>
-  </si>
-  <si>
     <t xml:space="preserve">BROMOCRIPTINA, MESILATO 2,5 MG COMPRIMIDO </t>
   </si>
   <si>
@@ -304,9 +250,6 @@
     <t>CARISOPRODOL, DIPIRONA + PIRIDOXINA + TIAMINA + CIANOCOBALAMINA 250MG + 250MG + 100MG + 50MG + 1MG COMP</t>
   </si>
   <si>
-    <t>CARMELOSE SÓDICA + GLICEROL 5 + 9 MG/ML SOLUÇÃO OFTÁLMICA 10 ML</t>
-  </si>
-  <si>
     <t xml:space="preserve">CARMELOSE SÓDICA + GLICEROL 5 + 9 MG/ML SOLUÇÃO OFTÁLMICA 15 ML </t>
   </si>
   <si>
@@ -343,9 +286,6 @@
     <t>CARVÃO VEGETAL ATIVADO PÓ 50 G</t>
   </si>
   <si>
-    <t>CEFTAZIDIMA ASSOCIADO AO AVIBACTAM 2000 MG + 500 MG SOLUÇÃO INJETÁVEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">CEMIPLIMABE 50 MG/ML INJ </t>
   </si>
   <si>
@@ -376,9 +316,6 @@
     <t>CIMICIFUGA RACEMOSA NUTT.  20 MG  COMPRIMIDO</t>
   </si>
   <si>
-    <t>CIPROEPTADINA, ASSOCIADOS 0,8 + 0,12 + 0,15 + 1,334 + 0,134 + 4,334 MG/ML XAROPE  240ML</t>
-  </si>
-  <si>
     <t>CIPROFLOXACINO + DEXAMETASONA 3,5 + 1 MG/G POMADA 3,5 G</t>
   </si>
   <si>
@@ -391,9 +328,6 @@
     <t>CIPROTERONA + ETINILESTRADIOL 2 + 0,035 MG  DRÁGEA</t>
   </si>
   <si>
-    <t>CISPLATINA 50 MG SOLUÇÃO INJETÁVEL</t>
-  </si>
-  <si>
     <t>CITALOPRAM 10 MG CÁPSULA  FÓRMULA ESPECIALMENTE MANIPULADA</t>
   </si>
   <si>
@@ -421,9 +355,6 @@
     <t>CLORETO DE POTÁSSIO 600 MG DRÁGEA</t>
   </si>
   <si>
-    <t>CLORETO DE SÓDIO + CLORETO DE BENZALCÔNIO + NAFAZOLINA 9 + 0,1 + 0,5 MG/ML SOLUÇÃO NASAL 30 ML</t>
-  </si>
-  <si>
     <t>CLOREXIDINA, DIGLICONATO 2% SOLUÇÃO DEGERMANTE 1000 ML</t>
   </si>
   <si>
@@ -850,12 +781,6 @@
     <t>Observação</t>
   </si>
   <si>
-    <t>Medicamentos na Hórus que NÃO estão na CMED para inclusão VMP n = 109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicamentos na Hórus para inclusão de VMP  n = 270 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Forma farmacêutica </t>
   </si>
   <si>
@@ -883,30 +808,9 @@
     <t>SOLUÇÃO AEROSSOL</t>
   </si>
   <si>
-    <t>COLUTÓRIO SPRAY</t>
-  </si>
-  <si>
-    <t>SOLUÇÃO TÓPICA</t>
-  </si>
-  <si>
-    <t>POMADA</t>
-  </si>
-  <si>
     <t>USO TÓPICO</t>
   </si>
   <si>
-    <t>CREME DERMATOLÓGICO</t>
-  </si>
-  <si>
-    <t>https://bula.gratis/pdfs/dibederm_11470572018_10884888-repaired.pdf</t>
-  </si>
-  <si>
-    <t>USO DERMATOLÓGICO</t>
-  </si>
-  <si>
-    <t>https://cdn.eurofarma.com.br//wp-content/uploads/2016/09/Bula_Trok-G-creme-e-pomada_Profissional.pdf</t>
-  </si>
-  <si>
     <t>SOLUÇÃO OTOLÓGICA E OFTÁLMICA</t>
   </si>
   <si>
@@ -931,21 +835,12 @@
     <t>VIA TÓPICA OCULAR</t>
   </si>
   <si>
-    <t>https://static-webv8.jet.com.br/drogaosuper/Bulas/7897316805053.pdf</t>
-  </si>
-  <si>
     <t>VIA ORAL</t>
   </si>
   <si>
     <t>https://img.drogasil.com.br/raiadrogasil_bula/ConcorAnlo.pdf</t>
   </si>
   <si>
-    <t>https://img.drogasil.com.br/raiadrogasil_bula/BICONCOR.pdf</t>
-  </si>
-  <si>
-    <t>https://www.merckgroup.com/br-pt/bulario/Concor_HCT_Bula_Profissional_17.08.17_tcm512_134996.pdf</t>
-  </si>
-  <si>
     <t>PÓ LIOFILIZADO PARA SOLUÇÃO INJETÁVEL</t>
   </si>
   <si>
@@ -967,9 +862,6 @@
     <t>https://www.boehringer-ingelheim.com.br/sites/br/files/2021-10-25_bula_spiolto.pdf</t>
   </si>
   <si>
-    <t>https://portal.novartis.com.br/medicamentos/wp-content/uploads/2021/10/Bula-PARLODEL-Comprimido-Medico.pdf</t>
-  </si>
-  <si>
     <t>VIA SUBCUTÂNEA</t>
   </si>
   <si>
@@ -991,18 +883,12 @@
     <t>https://www.ache.com.br/wp-content/uploads/application/pdf/bula-paciente-mionevrix.pdf</t>
   </si>
   <si>
-    <t>USO OFTÁLMICO</t>
-  </si>
-  <si>
     <t>https://www.uniaoquimica.com.br/wp-content/uploads/2020/01/BULA-CARVEROL-COMP.pdf</t>
   </si>
   <si>
     <t>PÓ PARA SOLUÇÃO PARA INFUSÃO</t>
   </si>
   <si>
-    <t>https://www.pfizer.com.br/files/Torgena_Profissional_de_Saude_22.pdf</t>
-  </si>
-  <si>
     <t>SOLUÇÃO PARA DILUIÇÃO PARA INFUSÃO</t>
   </si>
   <si>
@@ -1024,9 +910,6 @@
     <t>DEGERMANTE</t>
   </si>
   <si>
-    <t>https://www.qualidoc.com.br/file/general/Bula-1095773.PetivitBCXaropeSaborMorango240mL.pdf</t>
-  </si>
-  <si>
     <t>https://drogariasp.vteximg.com.br/arquivos/26948---biamotil-d-pomada-oftalmico-allergan-3-5g.pdf</t>
   </si>
   <si>
@@ -1039,24 +922,12 @@
     <t>null</t>
   </si>
   <si>
-    <t>https://guiadafarmaciadigital.com.br/arquivos-uploads/bula/bula_023233_1.pdf</t>
-  </si>
-  <si>
     <t>https://img.drogasil.com.br/raiadrogasil_bula/Litocit15MEQ.pdf</t>
   </si>
   <si>
     <t>https://www.merckgroup.com/br-pt/bulario/Mavenclad_Bula%20Profissional_pr%C3%A9-lan%C3%A7amento.pdf</t>
   </si>
   <si>
-    <t>SOLUÇÃO NASAL</t>
-  </si>
-  <si>
-    <t>VIA NASAL</t>
-  </si>
-  <si>
-    <t>https://apppharma.com.br/bula-pdf/sorinan-17869</t>
-  </si>
-  <si>
     <t>VIA INTRAMUSCULAR</t>
   </si>
   <si>
@@ -1177,12 +1048,6 @@
     <t>https://img.drogasil.com.br/raiadrogasil_bula/picbam-apixabana-comprimidos-bula.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">COMPRIMIDO </t>
-  </si>
-  <si>
-    <t>https://www.ache.com.br/arquivos/bula-profissional-da-saude-aristab.pdf</t>
-  </si>
-  <si>
     <t>https://apppharma.com.br/bula-pdf/aristab-mg-ml-suspensao-oral-com-ml-31335</t>
   </si>
   <si>
@@ -1207,21 +1072,9 @@
     <t>https://img.drogasil.com.br/raiadrogasil_bula/Biovicerincompressed.pdf</t>
   </si>
   <si>
-    <t>https://www.saudedireta.com.br/catinc/drugs/bulas/bambec.pdf</t>
-  </si>
-  <si>
     <t>https://www.4bio.com.br/wp-content/uploads/2019/06/Olumiant.pdf</t>
   </si>
   <si>
-    <t>https://static1.minhavida.com.br/medicines/notices/33/a7/ac/9a/celestone-1.pdf</t>
-  </si>
-  <si>
-    <t>PÓ LIOFILIZADO PARA INFUSÃO</t>
-  </si>
-  <si>
-    <t>https://portal.novartis.com.br/medicamentos/wp-content/uploads/2021/11/Bula-SIMULECT-Po-Liofilizado-para-Solucao-Injetavel-Medico.pdf</t>
-  </si>
-  <si>
     <t>https://img.drogasil.com.br/raiadrogasil_bula/Trimbow-Chiesi.pdf</t>
   </si>
   <si>
@@ -1231,12 +1084,6 @@
     <t>https://www.astrazeneca.com.br/content/dam/az-br/Medicine/medicine-pdf/Fasenra_Bula_Paciente.pdf</t>
   </si>
   <si>
-    <t>USO BUCAL</t>
-  </si>
-  <si>
-    <t>https://img.drogasil.com.br/raiadrogasil_bula/CiflogexCimed.pdf</t>
-  </si>
-  <si>
     <t>VIA INTRAMUSCULAR/INTRA-ARTICULAR/INTRALESIONAL</t>
   </si>
   <si>
@@ -1381,21 +1228,6 @@
     <t>https://pro.consultaremedios.com.br/bula/osteonutri-medley</t>
   </si>
   <si>
-    <t>https://www.lafepe.pe.gov.br/wp-content/uploads/2018/08/benznidazol_bula_profissional_bilingue.pdf</t>
-  </si>
-  <si>
-    <t>https://pro.consultaremedios.com.br/bula/diprosalic</t>
-  </si>
-  <si>
-    <t>https://static.farmaindex.com/manual/135310021.pdf</t>
-  </si>
-  <si>
-    <t>LOÇÃO TÓPICA</t>
-  </si>
-  <si>
-    <t>https://pro.consultaremedios.com.br/bula/acu-fresh-g</t>
-  </si>
-  <si>
     <t>USO NASAL??</t>
   </si>
   <si>
@@ -1510,9 +1342,6 @@
     <t>https://www.chiesi.com.br/img/prodotti/documenti/571_fluibron_sol_or_100580039_vps7.pdf</t>
   </si>
   <si>
-    <t>Medicamentos na Hórus que estão na CMED para inclusão de VMP  n = 155  até 16/06/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">GINKGO BILOBA 40 MG CÁPSULA  </t>
   </si>
   <si>
@@ -1526,6 +1355,357 @@
   </si>
   <si>
     <t>_</t>
+  </si>
+  <si>
+    <t>https://www.boehringer-ingelheim.com.br/sites/br/files/bula_praxbind_0.pdf</t>
+  </si>
+  <si>
+    <t>IDARUCIZUMABE 50 MG/ML SOL INJ (FR) 50 ML</t>
+  </si>
+  <si>
+    <t>Idarucizumabe 50 mg/mL solução injetável</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 30 MG COMPRIMIDO DE LIBERAÇÃO PROLONGADA</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 60 MG COMPRIMIDO DE LIBERAÇÃO PROLONGADA</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 80 MG COMPRIMIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLICOSAMINA, SULFATO 1 G CÁPSULA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLICOSAMINA, SULFATO 750 MG CÁPSULA </t>
+  </si>
+  <si>
+    <t>GLICOSE 10 % SOLUÇÃO INJETÁVEL 100 ML SISTEMA FECHADO</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDA + METFORMINA, CLORIDRATO 2 + 1000 MG COMPRIMIDO REVESTIDO</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDA + METFORMINA, CLORIDRATO 2 + 1000 MG COMPRIMIDO LIBERAÇÃO PROLONGADA</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDA + METFORMINA, CLORIDRATO 4 + 1000 MG COMPRIMIDO REVESTIDO</t>
+  </si>
+  <si>
+    <t>GLUCAGON 1 UI PÓ LIOFILIZADO + SERINGA COM DILUENTE 1ML</t>
+  </si>
+  <si>
+    <t>GLYCINE MAX (ISOFLAVONA DE SOJA) 100 MG COMPRIMIDO REVESTIDO</t>
+  </si>
+  <si>
+    <t>GLYCINE MAX (ISOFLAVONA DE SOJA) 125 MG COMP REV</t>
+  </si>
+  <si>
+    <t>GLYCINE MAX (ISOFLAVONA DE SOJA) 150 MG COMP REVESTIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLYCINE MAX (ISOFLAVONA DE SOJA) 40 MG CÁPSULA </t>
+  </si>
+  <si>
+    <t>GLYCINE MAX (ISOFLAVONA DE SOJA) 500 MG CAP</t>
+  </si>
+  <si>
+    <t>GLYCINE MAX (ISOFLAVONA DE SOJA) 75 MG COMP REVESTIDO</t>
+  </si>
+  <si>
+    <t>GOLIMUMABE 50 MG/0,5 ML  SOL INJ (SER PREENC) GRUPO 1.A</t>
+  </si>
+  <si>
+    <t>GOLIMUMABE 50 MG/4ml FRASCO AMPOLA SOLUÇÃO INJETÁVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOSSERRELINA 10,8 MG DEPOT  (SER PREENC) GRUPO 1.B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOSSERRELINA 3,6 MG DEPOT (SER PREENC) GRUPO 1.B </t>
+  </si>
+  <si>
+    <t>GUSELCUMABE 100 MG/1ML SOLUÇÂO INJETÁVEL (POR SERINGA PREENCHIDA) - SC</t>
+  </si>
+  <si>
+    <t>HARPAGOPHYTUM PROCUBENS (GARRA DO DIABO) 300MG COMP</t>
+  </si>
+  <si>
+    <t>HARPAGOPHYTUM PROCUBENS (GARRA DO DIABO) 400 MG COMPRIMIDO REVESTIDO</t>
+  </si>
+  <si>
+    <t>HARPAGOPHYTUM PROCUBENS (GARRA DO DIABO) 450MG COMP REVESTIDO LIBERAÇÃO RETARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARPAGOPHYTUM PROCUBENS (GARRA DO DIABO) 500 MG CÁPSULA </t>
+  </si>
+  <si>
+    <t>HEDERA HELIX - EXTRATO SECO 15 MG/ML XAROPE 100 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEPARINA SÓDICA 5000 UI/ML SOLUÇÃO INJETÁVEL  5 ML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIALURONATO DE SÓDIO 0,8 % SOLUÇÃO INJETÁVEL  50 ML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIALURONATO DE SÓDIO 1 % SOLUÇÃO INJETÁVEL  2 ML ELENCO ESTADUAL </t>
+  </si>
+  <si>
+    <t>HIALURONATO DE SÓDIO 1 % SOLUÇÃO INJETÁVEL COM SISTEMA DE APLICAÇÃO 2,5 ML - INTRA ARTICULAR</t>
+  </si>
+  <si>
+    <t>HIALURONATO DE SÓDIO 1 MG/ML SOLUÇÃO OFTÁLMICA 10 ML</t>
+  </si>
+  <si>
+    <t>HIALURONATO DE SÓDIO ASSOCIADO AO SORBITOL 20 + 40  MG/ML SOL INJ (SER PREENC) 4 ML</t>
+  </si>
+  <si>
+    <t>HIALURONIDASE;VALERATO DE BETAMETASONA 2,5 MG + 150 UTR POM DERM CT BG AL X 20 G</t>
+  </si>
+  <si>
+    <t>HIDRALAZINA, CLORIDRATO 25 MG DRÁGEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRALAZINA, CLORIDRATO 50 MG DRÁGEA </t>
+  </si>
+  <si>
+    <t>HIDROCORTISONA, ACETATO + LIDOCAÍNA + SUBGALATO DE BISMUTO + ÓXIDO DE ZINCO 5MG/G +  20MG/G + 20MG/G +  100MG/G MG POMADA 20 G</t>
+  </si>
+  <si>
+    <t>HIDROCORTISONA, ACETATO + LIDOCAÍNA + SUBGALATO DE BISMUTO + ÓXIDO DE ZINCO 5MG/G +  20MG/G + 20MG/G +  100MG/G MG POMADA 30 G</t>
+  </si>
+  <si>
+    <t>HIDROCORTISONA, ACETATO 1MG/ML SOL ORAL (FR) 100ML</t>
+  </si>
+  <si>
+    <t>HIDRÓXIDO DE CÁLCIO PÓ 20 G</t>
+  </si>
+  <si>
+    <t>HIDRÓXIDO DE FERRO III 20 MG/ML SOLUÇÃO INJETÁVEL 5 ML</t>
+  </si>
+  <si>
+    <t>HIDRÓXIDO DE FERRO III 50MG SOL ORAL (FR) 30ML</t>
+  </si>
+  <si>
+    <t>HIDROXOCOBALAMINA, CLORIDRATO 5G PÓ LIOF INJ (FR-AMP)</t>
+  </si>
+  <si>
+    <t>HILANO GF-20 8 MG/ML SOLUÇÃO INJETÁVEL 2 ML</t>
+  </si>
+  <si>
+    <t>HILANO GF-20 8 MG/ML SOLUÇÃO INJETÁVEL 6 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPERICUM PERFORATUM L. 150 MG CÁPSULA </t>
+  </si>
+  <si>
+    <t>IBUPROFENO + ARGININA 400 + 370 mg GRANULADO 3 G</t>
+  </si>
+  <si>
+    <t>IDURSULFASE 2 MG/ML SOL INJ (FR) 3 ML</t>
+  </si>
+  <si>
+    <t>IDURSULFASE ALFA 2 MG/ML SOL INJ (FR) 3 ML GRUPO 1.A</t>
+  </si>
+  <si>
+    <t>IMUNOGLOBULINA ANTI-HEPATITE B 1000 UI SOLUÇÃO INJETÁVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMUNOGLOBULINA ANTI-RHO (D) 250 MCG SOLUÇÃO INJETÁVEL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMUNOGLOBULINA ANTI-RHO (D) 300 MCG SOLUÇÃO INJETÁVEL  2 ML </t>
+  </si>
+  <si>
+    <t>IMUNOGLOBULINA ANTITIMÓCITOS HUMANOS (EQUINO) 20 MG/ML SOLUÇÃO INJETÁVEL 5 ML</t>
+  </si>
+  <si>
+    <t>IMUNOGLOBULINA HUMANA  10 G, ENDOVENOSA PÓ LIOFILIZADO PARA SUSPENSÃO INJETÁVEL 100 ML</t>
+  </si>
+  <si>
+    <t>IMUNOGLOBULINA HUMANA 0,5 G PÓ PARA SOLUÇÃO INJETÁVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMUNOGLOBULINA HUMANA 0,6 G SOLUÇÃO INJETÁVEL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMUNOGLOBULINA HUMANA 1 G INJ (FR) GRUPO 1.B </t>
+  </si>
+  <si>
+    <t>IMUNOGLOBULINA HUMANA 1 G PÓ PARA SOLUÇÃO INJETÁVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMUNOGLOBULINA HUMANA 2,5 G PÓ PARA SOLUÇÃO INJETÁVEL ELENCO ESTADUAL </t>
+  </si>
+  <si>
+    <t>IMUNOGLOBULINA HUMANA 3 G PÓ PARA SOLUÇÃO INJETÁVEL</t>
+  </si>
+  <si>
+    <t>IMUNOGLOBULINA HUMANA ANTIVARICELA ZOSTER 125 UI SOLUÇÃO INJETÁVEL 2,5 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMUNOGLOBULINA HUMANA, ANTIRÁBICA 2,5 UI PÓ LIOF INJ (AMP) 5 ML ELENCO ESTADUAL </t>
+  </si>
+  <si>
+    <t>Gliclazida 30 mg comprimido de liberação prolongada</t>
+  </si>
+  <si>
+    <t>COMPRIMIDO DE LIBERAÇÃO PROLONGADA</t>
+  </si>
+  <si>
+    <t>https://servier.com.br/wp-content/uploads/2018/11/16.11.24_diamicron_mr_30_mg_bula_profissional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ache.com.br/wp-content/uploads/application/pdf/bula-paciente-meritor.pdf</t>
+  </si>
+  <si>
+    <t>Glimepirida 2 mg + Metformina 1000 mg comprimido revestido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bula não disponível </t>
+  </si>
+  <si>
+    <t>Glimepirida 2 mg + Metformina 1000 mg comprimido de liberação controlada</t>
+  </si>
+  <si>
+    <t>Glimepirida 4 mg + Metformina 1000 mg comprimido revestido</t>
+  </si>
+  <si>
+    <t>Glucagon 1 unidade internacional (ou 1 mg) pó para solução injetável</t>
+  </si>
+  <si>
+    <t>VIA SUBCUTÂNEA E VIA INTRAMUSCULAR</t>
+  </si>
+  <si>
+    <t>Bula informa diluente. Avaliar se inclui na descrição. Avaliar como incluir dose (com ou sem info em mg)</t>
+  </si>
+  <si>
+    <t>https://www.novonordisk.com.br/content/dam/brazil/affiliate/www-novonordisk-br/Bulas/2020-07-03/Glucagen%C2%AE%20Hypokit%20-%20Bula%20do%20Profissional.pdf</t>
+  </si>
+  <si>
+    <t>https://www.qualidoc.com.br/file/general/Bula-1118811.Isovit75mg60ComprimidosRevestidos.pdf</t>
+  </si>
+  <si>
+    <t>Glycine max 150 mg comprimido revestido</t>
+  </si>
+  <si>
+    <t>Glycine max 75 mg comprimido revestido</t>
+  </si>
+  <si>
+    <t>Glycine max 100 mg comprimido revestido</t>
+  </si>
+  <si>
+    <t>VERIFICAR PORTAL</t>
+  </si>
+  <si>
+    <t>Guselcumabe 100 mg/mL solução injetável</t>
+  </si>
+  <si>
+    <t>https://guiadafarmaciadigital.com.br/arquivos-uploads/bula/bula_027242_1.pdf</t>
+  </si>
+  <si>
+    <t>http://200.199.142.163:8002/FOTOS_TRATADAS_SITE_14-03-2016/bulas/35964.pdf</t>
+  </si>
+  <si>
+    <t>Harpagophytum procumbens 300 mg comprimido revestido</t>
+  </si>
+  <si>
+    <t>COMPRIMIDO REVESTIDO GASTRORRESISTENTE</t>
+  </si>
+  <si>
+    <t>https://www.apsen.com.br/bula/Arpadol/Bula-Arpadol-Profissional.pdf</t>
+  </si>
+  <si>
+    <t>Harpagophytum procumbens 400 mg comprimido revestido</t>
+  </si>
+  <si>
+    <t>https://pro.consultaremedios.com.br/bula/arpynflan</t>
+  </si>
+  <si>
+    <t>Harpagophytum procumbens 450 mg comprimido revestido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bula não aponta liberação controlada  </t>
+  </si>
+  <si>
+    <t>Hedera helix 15 mg/mL xarope</t>
+  </si>
+  <si>
+    <t>https://io.convertiez.com.br/m/drogal/uploads/bulas/7896714274799/blumel.pdf</t>
+  </si>
+  <si>
+    <t>https://buladeremedio.net/pdfs/cystistat_10702832013_1908901-repaired.pdf</t>
+  </si>
+  <si>
+    <t>Hórus pode estar errada. Uma solução a 0,8% tem 8 mg/mL. A apresentação comercial Cystistat tem 0,8 mg/mL (0,08%). Avaliar!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA OFTÁLMICA   </t>
+  </si>
+  <si>
+    <t>https://www.cristalia.com.br/arquivos_medicamentos/389/Bula_Paciente_Lunah.pdf</t>
+  </si>
+  <si>
+    <t>Hialuronato de sódio 10 mg/ 10 mL solução oftálmica</t>
+  </si>
+  <si>
+    <t>https://apsen.com.br/Bula/Postec/Bula-Postec-Profissional.pdf</t>
+  </si>
+  <si>
+    <t>https://img.drogasil.com.br/raiadrogasil_bula/Apresolina.pdf</t>
+  </si>
+  <si>
+    <t>Hidralazina 25 mg drágea</t>
+  </si>
+  <si>
+    <t>Hidralazina 50 mg drágea</t>
+  </si>
+  <si>
+    <t>https://buladeremedio.net/grifols_brasil_ltda/0/niuliva/paciente</t>
+  </si>
+  <si>
+    <t>Imunoglobulina humana anti-hepatite B 1.000 unidades internacionais/4 mL solução para injeção; seringa preenchida</t>
+  </si>
+  <si>
+    <t>INTRAMUSCULAR</t>
+  </si>
+  <si>
+    <t>https://remediobarato.com/kamrho-d-bula-completa--panamerican-medical-supply-suprimentos-medicos-ltda--para-o-profissional.html#verpdf</t>
+  </si>
+  <si>
+    <t>Imunoglobulina anti-Rho (D) 300 unidades internacionais/2 mL solução para injeção; seringa preenchida</t>
+  </si>
+  <si>
+    <t>Imunoglobulina anti-Rho (D) 300 unidades internacionais/2 mL solução para injeção; frasco-ampola</t>
+  </si>
+  <si>
+    <t>INTRAVENOSA/ INTRAMUSCULAR</t>
+  </si>
+  <si>
+    <t>https://labeling.cslbehring.com/pi/br/rhophylac/pt/rhophylac-bula-prof-saude.pdf</t>
+  </si>
+  <si>
+    <t>Imunoglobulina G 1 g/10 mL solução para injeção; frasco-ampola</t>
+  </si>
+  <si>
+    <t>https://consultas.anvisa.gov.br/#/bulario/detalhe/823189?numeroRegistro=109140020</t>
+  </si>
+  <si>
+    <t>Cadastrado</t>
+  </si>
+  <si>
+    <t>Medicamentos na Hórus que NÃO estão na CMED para inclusão VMP n = 144 - 21/06/2023</t>
+  </si>
+  <si>
+    <t>Medicamentos na Hórus que estão na CMED para inclusão de VMP  n = 161  até 21/06/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dose anterior no portal está diferente </t>
+  </si>
+  <si>
+    <t>Medicamentos na Hórus para inclusão de VMP  n = 310 - 21/06/2023</t>
   </si>
 </sst>
 </file>
@@ -1613,6 +1793,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1622,7 +1803,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1653,8 +1833,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A2:G157" totalsRowShown="0">
-  <autoFilter ref="A2:G157"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A2:G163" totalsRowShown="0">
+  <autoFilter ref="A2:G163"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Medicamentos Hórus"/>
     <tableColumn id="6" name="Descrição VMP"/>
@@ -1669,8 +1849,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A2:B111" totalsRowShown="0">
-  <autoFilter ref="A2:B111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A2:B146" totalsRowShown="0">
+  <autoFilter ref="A2:B146"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Medicamentos"/>
     <tableColumn id="2" name="Observação"/>
@@ -1680,8 +1860,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:B272" totalsRowShown="0">
-  <autoFilter ref="A2:B272"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:B312" totalsRowShown="0">
+  <autoFilter ref="A2:B312"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Medicamentos"/>
     <tableColumn id="2" name="Obs"/>
@@ -1953,1659 +2133,1660 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="71.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="27.21875" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" customWidth="1"/>
     <col min="5" max="5" width="23.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
     <col min="7" max="7" width="100.77734375" customWidth="1"/>
     <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>407</v>
       </c>
       <c r="C2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G2" t="s">
+        <v>401</v>
+      </c>
+      <c r="M2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" t="s">
+        <v>441</v>
+      </c>
+      <c r="G3" t="s">
+        <v>337</v>
+      </c>
+      <c r="M3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" t="s">
+        <v>554</v>
+      </c>
+      <c r="G4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" t="s">
+        <v>554</v>
+      </c>
+      <c r="G5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" t="s">
+        <v>554</v>
+      </c>
+      <c r="G6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E8" t="s">
+        <v>554</v>
+      </c>
+      <c r="G8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" t="s">
+        <v>554</v>
+      </c>
+      <c r="G9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" t="s">
+        <v>554</v>
+      </c>
+      <c r="G10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" t="s">
+        <v>554</v>
+      </c>
+      <c r="G11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" t="s">
+        <v>554</v>
+      </c>
+      <c r="G12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" t="s">
+        <v>554</v>
+      </c>
+      <c r="G13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" t="s">
         <v>275</v>
       </c>
-      <c r="D2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G2" t="s">
-        <v>457</v>
-      </c>
-      <c r="M2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E3" t="s">
-        <v>498</v>
-      </c>
-      <c r="G3" t="s">
-        <v>380</v>
-      </c>
-      <c r="M3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E4" t="s">
-        <v>498</v>
-      </c>
-      <c r="G4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E5" t="s">
-        <v>498</v>
-      </c>
-      <c r="G5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E6" t="s">
-        <v>498</v>
-      </c>
-      <c r="G6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C7" t="s">
-        <v>382</v>
-      </c>
-      <c r="D7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E7" t="s">
-        <v>498</v>
-      </c>
-      <c r="G7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D8" t="s">
-        <v>387</v>
-      </c>
-      <c r="E8" t="s">
-        <v>498</v>
-      </c>
-      <c r="G8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" t="s">
-        <v>387</v>
-      </c>
-      <c r="E9" t="s">
-        <v>498</v>
-      </c>
-      <c r="G9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D10" t="s">
-        <v>295</v>
-      </c>
-      <c r="E10" t="s">
-        <v>498</v>
-      </c>
-      <c r="G10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C11" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11" t="s">
-        <v>301</v>
-      </c>
-      <c r="E11" t="s">
-        <v>498</v>
-      </c>
-      <c r="G11" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C12" t="s">
-        <v>279</v>
-      </c>
-      <c r="D12" t="s">
-        <v>301</v>
-      </c>
-      <c r="E12" t="s">
-        <v>498</v>
-      </c>
-      <c r="G12" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D13" t="s">
-        <v>301</v>
-      </c>
-      <c r="E13" t="s">
-        <v>498</v>
-      </c>
-      <c r="G13" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" t="s">
-        <v>301</v>
-      </c>
       <c r="E14" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G14" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>498</v>
+      <c r="B15" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D15" t="s">
-        <v>301</v>
-      </c>
-      <c r="E15" t="s">
-        <v>498</v>
+        <v>399</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="G15" t="s">
-        <v>393</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>498</v>
+      <c r="B16" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C16" t="s">
-        <v>395</v>
+        <v>258</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="E16" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G16" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>498</v>
+      <c r="B17" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D17" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="E17" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G17" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>498</v>
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C18" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="D18" t="s">
-        <v>455</v>
+        <v>261</v>
       </c>
       <c r="E18" t="s">
-        <v>296</v>
-      </c>
-      <c r="G18" t="s">
-        <v>335</v>
+        <v>554</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>498</v>
+        <v>30</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C19" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="D19" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="E19" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G19" t="s">
-        <v>398</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>498</v>
+        <v>35</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C20" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="D20" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="E20" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G20" t="s">
-        <v>399</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>498</v>
+        <v>36</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C21" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D21" t="s">
-        <v>400</v>
+        <v>263</v>
       </c>
       <c r="E21" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G21" t="s">
-        <v>401</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>498</v>
+        <v>37</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C22" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="D22" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E22" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G22" t="s">
-        <v>450</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>498</v>
+        <v>38</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C23" t="s">
-        <v>453</v>
+        <v>252</v>
       </c>
       <c r="D23" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="E23" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G23" t="s">
-        <v>452</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>498</v>
+        <v>39</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C24" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="D24" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E24" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G24" t="s">
-        <v>394</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>498</v>
+        <v>40</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C25" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="D25" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E25" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G25" t="s">
-        <v>394</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>498</v>
+        <v>41</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C26" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="D26" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="E26" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G26" t="s">
-        <v>451</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>498</v>
+        <v>42</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C27" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D27" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E27" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G27" t="s">
-        <v>451</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>498</v>
+        <v>48</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C28" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="D28" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="E28" t="s">
-        <v>498</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>289</v>
+        <v>554</v>
+      </c>
+      <c r="G28" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>498</v>
+        <v>49</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C29" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="D29" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="E29" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G29" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>498</v>
+        <v>50</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C30" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="D30" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E30" t="s">
-        <v>498</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>294</v>
+        <v>554</v>
+      </c>
+      <c r="G30" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>498</v>
+        <v>51</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C31" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D31" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="E31" t="s">
-        <v>296</v>
+        <v>554</v>
       </c>
       <c r="G31" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>498</v>
+        <v>54</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C32" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="D32" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="E32" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G32" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>498</v>
+        <v>64</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C33" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="D33" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G33" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>498</v>
+        <v>72</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C34" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D34" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E34" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G34" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>498</v>
+        <v>78</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C35" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="D35" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E35" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G35" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>498</v>
+        <v>85</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C36" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D36" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="E36" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G36" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>498</v>
+        <v>91</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C37" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="D37" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="E37" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G37" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>498</v>
+        <v>95</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C38" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="D38" t="s">
-        <v>301</v>
-      </c>
-      <c r="E38" t="s">
-        <v>498</v>
+        <v>267</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="G38" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>498</v>
+        <v>96</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C39" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D39" t="s">
-        <v>301</v>
-      </c>
-      <c r="E39" t="s">
-        <v>498</v>
+        <v>267</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="G39" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>498</v>
+        <v>97</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C40" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D40" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="E40" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G40" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>498</v>
+        <v>98</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C41" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D41" t="s">
-        <v>301</v>
-      </c>
-      <c r="E41" t="s">
-        <v>498</v>
+        <v>268</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="G41" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>498</v>
+        <v>101</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C42" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="D42" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E42" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G42" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>498</v>
+        <v>102</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C43" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="D43" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="E43" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G43" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>498</v>
+        <v>108</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C44" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="D44" t="s">
-        <v>301</v>
-      </c>
-      <c r="E44" t="s">
-        <v>498</v>
+        <v>292</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="G44" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>498</v>
+        <v>112</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C45" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="D45" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E45" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G45" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>498</v>
+        <v>113</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C46" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="E46" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G46" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>498</v>
+        <v>115</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D47" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G47" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>498</v>
+        <v>116</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C48" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D48" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="E48" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G48" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>498</v>
+        <v>117</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C49" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D49" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E49" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G49" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>498</v>
+        <v>118</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C50" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="D50" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E50" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G50" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>498</v>
+        <v>119</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C51" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="D51" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E51" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G51" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>498</v>
+        <v>120</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C52" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D52" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="E52" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G52" t="s">
-        <v>454</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>498</v>
+        <v>121</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C53" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="D53" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E53" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G53" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>498</v>
+        <v>122</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C54" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D54" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="E54" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G54" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>498</v>
+        <v>123</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C55" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="D55" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="E55" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G55" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>111</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>498</v>
+        <v>125</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C56" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="D56" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E56" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G56" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>498</v>
+        <v>127</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C57" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="D57" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="E57" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G57" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>498</v>
+        <v>128</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C58" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="D58" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="E58" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G58" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>498</v>
+        <v>129</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C59" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="D59" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="E59" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G59" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>498</v>
+        <v>130</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C60" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="D60" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="E60" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G60" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>498</v>
+        <v>131</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C61" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D61" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="E61" t="s">
-        <v>296</v>
+        <v>441</v>
       </c>
       <c r="G61" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>498</v>
+        <v>132</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C62" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="D62" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="E62" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G62" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>498</v>
+        <v>133</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C63" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="D63" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="E63" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G63" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>498</v>
+        <v>134</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C64" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="D64" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="E64" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G64" t="s">
-        <v>338</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>498</v>
+        <v>136</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C65" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="D65" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="E65" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G65" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>498</v>
+        <v>137</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C66" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
       <c r="D66" t="s">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="E66" t="s">
-        <v>330</v>
+        <v>441</v>
       </c>
       <c r="G66" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>498</v>
+        <v>138</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C67" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="D67" t="s">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="E67" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G67" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>498</v>
+        <v>139</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C68" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D68" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="E68" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G68" t="s">
-        <v>344</v>
+        <v>403</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>498</v>
+        <v>140</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C69" t="s">
-        <v>346</v>
+        <v>266</v>
       </c>
       <c r="D69" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="E69" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G69" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>498</v>
+        <v>141</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C70" t="s">
-        <v>346</v>
+        <v>266</v>
       </c>
       <c r="D70" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="E70" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G70" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>498</v>
+        <v>142</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C71" t="s">
-        <v>346</v>
+        <v>266</v>
       </c>
       <c r="D71" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="E71" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G71" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>498</v>
+        <v>152</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C72" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="D72" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E72" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G72" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>142</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>498</v>
+        <v>155</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C73" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="D73" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E73" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G73" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>143</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>498</v>
+        <v>158</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C74" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="D74" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E74" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G74" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>144</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>498</v>
+        <v>160</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C75" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="D75" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E75" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G75" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>145</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>498</v>
+        <v>161</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C76" t="s">
-        <v>346</v>
+        <v>266</v>
       </c>
       <c r="D76" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="E76" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G76" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>146</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>498</v>
+        <v>162</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C77" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D77" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E77" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G77" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>148</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>498</v>
+        <v>165</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C78" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="D78" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="E78" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G78" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>150</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>498</v>
+      <c r="A79" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C79" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="D79" t="s">
-        <v>295</v>
-      </c>
-      <c r="E79" t="s">
-        <v>498</v>
+        <v>351</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>404</v>
       </c>
       <c r="G79" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>151</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>498</v>
+        <v>167</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C80" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D80" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="E80" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G80" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>152</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>498</v>
+        <v>168</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C81" t="s">
+        <v>355</v>
+      </c>
+      <c r="D81" t="s">
         <v>356</v>
       </c>
-      <c r="D81" t="s">
-        <v>295</v>
-      </c>
       <c r="E81" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>153</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>498</v>
+        <v>169</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C82" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="D82" t="s">
-        <v>295</v>
+        <v>358</v>
       </c>
       <c r="E82" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G82" t="s">
         <v>359</v>
@@ -3613,279 +3794,279 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>154</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>498</v>
+        <v>173</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C83" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" t="s">
+        <v>268</v>
+      </c>
+      <c r="E83" t="s">
+        <v>441</v>
+      </c>
+      <c r="G83" t="s">
         <v>360</v>
-      </c>
-      <c r="D83" t="s">
-        <v>295</v>
-      </c>
-      <c r="E83" t="s">
-        <v>498</v>
-      </c>
-      <c r="G83" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>155</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>498</v>
+        <v>177</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C84" t="s">
-        <v>360</v>
+        <v>252</v>
       </c>
       <c r="D84" t="s">
-        <v>362</v>
+        <v>268</v>
       </c>
       <c r="E84" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G84" t="s">
-        <v>458</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>156</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>498</v>
+        <v>179</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C85" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
       <c r="D85" t="s">
+        <v>263</v>
+      </c>
+      <c r="E85" t="s">
+        <v>441</v>
+      </c>
+      <c r="G85" t="s">
         <v>362</v>
-      </c>
-      <c r="E85" t="s">
-        <v>498</v>
-      </c>
-      <c r="G85" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>157</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>498</v>
+        <v>180</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C86" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
       <c r="D86" t="s">
-        <v>362</v>
+        <v>263</v>
       </c>
       <c r="E86" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G86" t="s">
-        <v>458</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>498</v>
+        <v>181</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C87" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D87" t="s">
-        <v>363</v>
+        <v>268</v>
       </c>
       <c r="E87" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G87" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>160</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>498</v>
+        <v>182</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C88" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D88" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="E88" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G88" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>161</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>498</v>
+        <v>183</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C89" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D89" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="E89" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G89" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>162</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>498</v>
+        <v>185</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C90" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="D90" t="s">
-        <v>366</v>
+        <v>268</v>
       </c>
       <c r="E90" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G90" t="s">
-        <v>459</v>
+        <v>367</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>163</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>498</v>
+        <v>186</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C91" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="D91" t="s">
-        <v>366</v>
+        <v>268</v>
       </c>
       <c r="E91" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G91" t="s">
-        <v>459</v>
+        <v>367</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>164</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>498</v>
+        <v>187</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C92" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="D92" t="s">
-        <v>367</v>
+        <v>268</v>
       </c>
       <c r="E92" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G92" t="s">
-        <v>459</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>165</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>498</v>
+        <v>189</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>369</v>
       </c>
       <c r="D93" t="s">
-        <v>367</v>
+        <v>263</v>
       </c>
       <c r="E93" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G93" t="s">
-        <v>459</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>175</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>498</v>
+        <v>190</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C94" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D94" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="E94" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G94" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>178</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>498</v>
+        <v>191</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C95" t="s">
+        <v>266</v>
+      </c>
+      <c r="D95" t="s">
         <v>277</v>
       </c>
-      <c r="D95" t="s">
-        <v>301</v>
-      </c>
       <c r="E95" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G95" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>181</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>498</v>
+        <v>192</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C96" t="s">
+        <v>266</v>
+      </c>
+      <c r="D96" t="s">
         <v>277</v>
       </c>
-      <c r="D96" t="s">
-        <v>301</v>
-      </c>
       <c r="E96" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G96" t="s">
         <v>371</v>
@@ -3893,1222 +4074,1210 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>183</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>498</v>
+        <v>193</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C97" t="s">
+        <v>266</v>
+      </c>
+      <c r="D97" t="s">
         <v>277</v>
       </c>
-      <c r="D97" t="s">
-        <v>301</v>
-      </c>
       <c r="E97" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G97" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>184</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>498</v>
+        <v>194</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C98" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="D98" t="s">
-        <v>374</v>
+        <v>277</v>
       </c>
       <c r="E98" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G98" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>185</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>498</v>
+        <v>195</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C99" t="s">
-        <v>376</v>
+        <v>252</v>
       </c>
       <c r="D99" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E99" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G99" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>188</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>498</v>
+        <v>196</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C100" t="s">
+        <v>252</v>
+      </c>
+      <c r="D100" t="s">
+        <v>268</v>
+      </c>
+      <c r="E100" t="s">
+        <v>441</v>
+      </c>
+      <c r="G100" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C101" t="s">
+        <v>252</v>
+      </c>
+      <c r="D101" t="s">
+        <v>268</v>
+      </c>
+      <c r="E101" t="s">
+        <v>441</v>
+      </c>
+      <c r="G101" t="s">
         <v>373</v>
-      </c>
-      <c r="D100" t="s">
-        <v>378</v>
-      </c>
-      <c r="E100" t="s">
-        <v>498</v>
-      </c>
-      <c r="G100" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C101" t="s">
-        <v>298</v>
-      </c>
-      <c r="D101" t="s">
-        <v>402</v>
-      </c>
-      <c r="E101" t="s">
-        <v>460</v>
-      </c>
-      <c r="G101" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>190</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>498</v>
+        <v>206</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C102" t="s">
-        <v>404</v>
+        <v>252</v>
       </c>
       <c r="D102" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E102" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G102" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>191</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>498</v>
+        <v>207</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C103" t="s">
+        <v>252</v>
+      </c>
+      <c r="D103" t="s">
+        <v>268</v>
+      </c>
+      <c r="E103" t="s">
+        <v>441</v>
+      </c>
+      <c r="G103" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C104" t="s">
+        <v>252</v>
+      </c>
+      <c r="D104" t="s">
+        <v>268</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G104" t="s">
         <v>406</v>
-      </c>
-      <c r="D103" t="s">
-        <v>407</v>
-      </c>
-      <c r="E103" t="s">
-        <v>498</v>
-      </c>
-      <c r="G103" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>192</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C104" t="s">
-        <v>298</v>
-      </c>
-      <c r="D104" t="s">
-        <v>409</v>
-      </c>
-      <c r="E104" t="s">
-        <v>498</v>
-      </c>
-      <c r="G104" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>196</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>498</v>
+        <v>210</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C105" t="s">
-        <v>277</v>
+        <v>376</v>
       </c>
       <c r="D105" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="E105" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G105" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>200</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>498</v>
+        <v>211</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C106" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D106" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E106" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G106" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>202</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>498</v>
+        <v>212</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C107" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="D107" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="E107" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G107" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>203</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>498</v>
+        <v>213</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C108" t="s">
-        <v>298</v>
+        <v>369</v>
       </c>
       <c r="D108" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="E108" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G108" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>204</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>498</v>
+        <v>214</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C109" t="s">
-        <v>415</v>
+        <v>266</v>
       </c>
       <c r="D109" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="E109" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G109" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>205</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>498</v>
+        <v>215</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C110" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="D110" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="E110" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G110" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>206</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>498</v>
+        <v>216</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C111" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="D111" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="E111" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G111" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>208</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>498</v>
+        <v>217</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C112" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D112" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E112" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G112" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>209</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>498</v>
+        <v>219</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C113" t="s">
-        <v>277</v>
+        <v>383</v>
       </c>
       <c r="D113" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E113" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G113" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>210</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>498</v>
+        <v>220</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C114" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D114" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E114" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G114" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>212</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>498</v>
+        <v>221</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C115" t="s">
-        <v>420</v>
+        <v>252</v>
       </c>
       <c r="D115" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="E115" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G115" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>213</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>498</v>
+        <v>222</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C116" t="s">
-        <v>420</v>
+        <v>266</v>
       </c>
       <c r="D116" t="s">
-        <v>295</v>
+        <v>358</v>
       </c>
       <c r="E116" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G116" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>214</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>498</v>
+        <v>223</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C117" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="D117" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="E117" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G117" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>215</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>498</v>
+        <v>224</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C118" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="D118" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="E118" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G118" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>216</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>498</v>
+        <v>226</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C119" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="D119" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="E119" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G119" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>217</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>498</v>
+        <v>230</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C120" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="D120" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="E120" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G120" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>218</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>498</v>
+        <v>231</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C121" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D121" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E121" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G121" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>219</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>498</v>
+        <v>234</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C122" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D122" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E122" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G122" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>220</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>498</v>
+        <v>235</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C123" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D123" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E123" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G123" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>229</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>498</v>
+        <v>236</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C124" t="s">
-        <v>277</v>
+        <v>394</v>
       </c>
       <c r="D124" t="s">
-        <v>301</v>
+        <v>395</v>
       </c>
       <c r="E124" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G124" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>230</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>498</v>
+        <v>237</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C125" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D125" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E125" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G125" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>498</v>
+      <c r="A126" t="s">
+        <v>238</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C126" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D126" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E126" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="G126" t="s">
-        <v>462</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>233</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>498</v>
+        <v>239</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C127" t="s">
-        <v>427</v>
+        <v>252</v>
       </c>
       <c r="D127" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="E127" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G127" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>234</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>498</v>
+        <v>245</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C128" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="D128" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E128" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G128" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>235</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>498</v>
+        <v>411</v>
+      </c>
+      <c r="B129" t="s">
+        <v>412</v>
       </c>
       <c r="C129" t="s">
-        <v>277</v>
+        <v>413</v>
       </c>
       <c r="D129" t="s">
-        <v>301</v>
-      </c>
-      <c r="E129" t="s">
-        <v>498</v>
+        <v>268</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="G129" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>236</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>498</v>
+        <v>416</v>
+      </c>
+      <c r="B130" t="s">
+        <v>417</v>
       </c>
       <c r="C130" t="s">
-        <v>420</v>
+        <v>252</v>
       </c>
       <c r="D130" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="E130" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G130" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>237</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>498</v>
+        <v>419</v>
+      </c>
+      <c r="B131" t="s">
+        <v>420</v>
       </c>
       <c r="C131" t="s">
-        <v>298</v>
+        <v>421</v>
       </c>
       <c r="D131" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="E131" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G131" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>238</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>498</v>
+        <v>423</v>
+      </c>
+      <c r="B132" t="s">
+        <v>424</v>
       </c>
       <c r="C132" t="s">
-        <v>298</v>
+        <v>425</v>
       </c>
       <c r="D132" t="s">
-        <v>313</v>
-      </c>
-      <c r="E132" t="s">
-        <v>498</v>
+        <v>268</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="G132" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>239</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>498</v>
+        <v>428</v>
+      </c>
+      <c r="B133" t="s">
+        <v>429</v>
       </c>
       <c r="C133" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D133" t="s">
-        <v>301</v>
-      </c>
-      <c r="E133" t="s">
-        <v>498</v>
+        <v>430</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="G133" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>240</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>498</v>
+        <v>433</v>
+      </c>
+      <c r="B134" t="s">
+        <v>434</v>
       </c>
       <c r="C134" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="D134" t="s">
-        <v>301</v>
-      </c>
-      <c r="E134" t="s">
-        <v>498</v>
+        <v>268</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="G134" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>242</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>498</v>
+        <v>437</v>
+      </c>
+      <c r="B135" t="s">
+        <v>438</v>
       </c>
       <c r="C135" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D135" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E135" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="G135" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>243</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>498</v>
+        <v>445</v>
+      </c>
+      <c r="B136" t="s">
+        <v>506</v>
       </c>
       <c r="C136" t="s">
-        <v>277</v>
+        <v>507</v>
       </c>
       <c r="D136" t="s">
-        <v>301</v>
-      </c>
-      <c r="E136" t="s">
-        <v>498</v>
+        <v>268</v>
       </c>
       <c r="G136" t="s">
-        <v>436</v>
+        <v>508</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>244</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>498</v>
+        <v>451</v>
+      </c>
+      <c r="B137" t="s">
+        <v>510</v>
       </c>
       <c r="C137" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D137" t="s">
-        <v>301</v>
-      </c>
-      <c r="E137" t="s">
-        <v>498</v>
+        <v>268</v>
       </c>
       <c r="G137" t="s">
-        <v>436</v>
+        <v>509</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>245</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>498</v>
+        <v>452</v>
+      </c>
+      <c r="B138" t="s">
+        <v>512</v>
       </c>
       <c r="C138" t="s">
-        <v>298</v>
+        <v>507</v>
       </c>
       <c r="D138" t="s">
-        <v>409</v>
-      </c>
-      <c r="E138" t="s">
-        <v>498</v>
-      </c>
-      <c r="G138" t="s">
-        <v>437</v>
+        <v>268</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>246</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>498</v>
+        <v>453</v>
+      </c>
+      <c r="B139" t="s">
+        <v>513</v>
       </c>
       <c r="C139" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="D139" t="s">
-        <v>409</v>
-      </c>
-      <c r="E139" t="s">
-        <v>498</v>
+        <v>268</v>
       </c>
       <c r="G139" t="s">
-        <v>438</v>
+        <v>509</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>247</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>498</v>
+        <v>454</v>
+      </c>
+      <c r="B140" t="s">
+        <v>514</v>
       </c>
       <c r="C140" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D140" t="s">
-        <v>409</v>
-      </c>
-      <c r="E140" t="s">
-        <v>498</v>
+        <v>515</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>516</v>
       </c>
       <c r="G140" t="s">
-        <v>439</v>
+        <v>517</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>249</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>498</v>
+        <v>455</v>
+      </c>
+      <c r="B141" t="s">
+        <v>521</v>
       </c>
       <c r="C141" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D141" t="s">
-        <v>301</v>
-      </c>
-      <c r="E141" t="s">
-        <v>498</v>
-      </c>
-      <c r="G141" t="s">
-        <v>440</v>
+        <v>268</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>253</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>498</v>
+        <v>457</v>
+      </c>
+      <c r="B142" t="s">
+        <v>519</v>
       </c>
       <c r="C142" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D142" t="s">
-        <v>301</v>
-      </c>
-      <c r="E142" t="s">
-        <v>498</v>
+        <v>268</v>
       </c>
       <c r="G142" t="s">
-        <v>441</v>
+        <v>518</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>254</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>498</v>
+        <v>460</v>
+      </c>
+      <c r="B143" t="s">
+        <v>520</v>
       </c>
       <c r="C143" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D143" t="s">
-        <v>301</v>
-      </c>
-      <c r="E143" t="s">
-        <v>498</v>
+        <v>268</v>
       </c>
       <c r="G143" t="s">
-        <v>442</v>
+        <v>518</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>257</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C144" t="s">
-        <v>277</v>
-      </c>
-      <c r="D144" t="s">
-        <v>301</v>
-      </c>
-      <c r="E144" t="s">
-        <v>498</v>
-      </c>
-      <c r="G144" t="s">
-        <v>443</v>
+        <v>461</v>
+      </c>
+      <c r="B144" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>258</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C145" t="s">
-        <v>277</v>
-      </c>
-      <c r="D145" t="s">
-        <v>301</v>
-      </c>
-      <c r="E145" t="s">
-        <v>498</v>
-      </c>
-      <c r="G145" t="s">
-        <v>444</v>
+        <v>462</v>
+      </c>
+      <c r="B145" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>259</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C146" t="s">
-        <v>445</v>
-      </c>
-      <c r="D146" t="s">
-        <v>446</v>
-      </c>
-      <c r="E146" t="s">
-        <v>498</v>
-      </c>
-      <c r="G146" t="s">
-        <v>447</v>
+        <v>463</v>
+      </c>
+      <c r="B146" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>260</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C147" t="s">
-        <v>277</v>
-      </c>
-      <c r="D147" t="s">
-        <v>301</v>
-      </c>
-      <c r="E147" t="s">
-        <v>498</v>
-      </c>
-      <c r="G147" t="s">
-        <v>448</v>
+        <v>464</v>
+      </c>
+      <c r="B147" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>261</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>498</v>
+        <v>465</v>
+      </c>
+      <c r="B148" t="s">
+        <v>523</v>
       </c>
       <c r="C148" t="s">
+        <v>266</v>
+      </c>
+      <c r="D148" t="s">
         <v>277</v>
       </c>
-      <c r="D148" t="s">
-        <v>301</v>
-      </c>
-      <c r="E148" t="s">
-        <v>498</v>
-      </c>
       <c r="G148" t="s">
-        <v>448</v>
+        <v>524</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>262</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>498</v>
+        <v>466</v>
+      </c>
+      <c r="B149" t="s">
+        <v>526</v>
       </c>
       <c r="C149" t="s">
-        <v>277</v>
+        <v>527</v>
       </c>
       <c r="D149" t="s">
-        <v>301</v>
-      </c>
-      <c r="E149" t="s">
-        <v>498</v>
+        <v>268</v>
       </c>
       <c r="G149" t="s">
-        <v>449</v>
+        <v>525</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>268</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>498</v>
+        <v>467</v>
+      </c>
+      <c r="B150" t="s">
+        <v>529</v>
       </c>
       <c r="C150" t="s">
-        <v>368</v>
+        <v>527</v>
       </c>
       <c r="D150" t="s">
-        <v>301</v>
-      </c>
-      <c r="E150" t="s">
-        <v>498</v>
+        <v>268</v>
       </c>
       <c r="G150" t="s">
-        <v>456</v>
+        <v>528</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B151" t="s">
-        <v>468</v>
+        <v>531</v>
       </c>
       <c r="C151" t="s">
-        <v>469</v>
+        <v>333</v>
       </c>
       <c r="D151" t="s">
-        <v>301</v>
-      </c>
-      <c r="E151" t="s">
-        <v>470</v>
+        <v>268</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>532</v>
       </c>
       <c r="G151" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B152" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="C152" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D152" t="s">
-        <v>301</v>
-      </c>
-      <c r="E152" t="s">
-        <v>498</v>
+        <v>268</v>
       </c>
       <c r="G152" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B153" t="s">
-        <v>476</v>
-      </c>
-      <c r="C153" t="s">
-        <v>477</v>
-      </c>
-      <c r="D153" t="s">
-        <v>301</v>
-      </c>
-      <c r="E153" t="s">
-        <v>498</v>
-      </c>
-      <c r="G153" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B154" t="s">
-        <v>480</v>
-      </c>
-      <c r="C154" t="s">
-        <v>481</v>
-      </c>
-      <c r="D154" t="s">
-        <v>301</v>
-      </c>
-      <c r="E154" t="s">
-        <v>482</v>
+        <v>522</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="G154" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B155" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="C155" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="D155" t="s">
-        <v>486</v>
-      </c>
-      <c r="E155" t="s">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="G155" t="s">
-        <v>488</v>
+        <v>538</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>489</v>
+      <c r="A156" s="5" t="s">
+        <v>477</v>
       </c>
       <c r="B156" t="s">
-        <v>490</v>
-      </c>
-      <c r="C156" t="s">
-        <v>282</v>
-      </c>
-      <c r="D156" t="s">
-        <v>301</v>
-      </c>
-      <c r="E156" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="G156" t="s">
-        <v>492</v>
+        <v>540</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>494</v>
+      <c r="A157" s="5" t="s">
+        <v>478</v>
       </c>
       <c r="B157" t="s">
+        <v>542</v>
+      </c>
+      <c r="C157" t="s">
+        <v>288</v>
+      </c>
+      <c r="D157" t="s">
+        <v>268</v>
+      </c>
+      <c r="G157" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B158" t="s">
+        <v>543</v>
+      </c>
+      <c r="C158" t="s">
+        <v>288</v>
+      </c>
+      <c r="D158" t="s">
+        <v>268</v>
+      </c>
+      <c r="G158" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B159" t="s">
+        <v>444</v>
+      </c>
+      <c r="C159" t="s">
+        <v>266</v>
+      </c>
+      <c r="D159" t="s">
+        <v>430</v>
+      </c>
+      <c r="G159" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B160" t="s">
+        <v>545</v>
+      </c>
+      <c r="C160" t="s">
+        <v>266</v>
+      </c>
+      <c r="D160" t="s">
+        <v>430</v>
+      </c>
+      <c r="G160" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C157" t="s">
-        <v>496</v>
-      </c>
-      <c r="D157" t="s">
-        <v>301</v>
-      </c>
-      <c r="E157" t="s">
-        <v>498</v>
-      </c>
-      <c r="G157" t="s">
-        <v>497</v>
+      <c r="B161" t="s">
+        <v>548</v>
+      </c>
+      <c r="C161" t="s">
+        <v>266</v>
+      </c>
+      <c r="D161" t="s">
+        <v>546</v>
+      </c>
+      <c r="G161" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B162" t="s">
+        <v>549</v>
+      </c>
+      <c r="C162" t="s">
+        <v>266</v>
+      </c>
+      <c r="D162" t="s">
+        <v>550</v>
+      </c>
+      <c r="G162" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B163" t="s">
+        <v>552</v>
+      </c>
+      <c r="C163" t="s">
+        <v>266</v>
+      </c>
+      <c r="D163" t="s">
+        <v>430</v>
+      </c>
+      <c r="G163" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -5116,593 +5285,767 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F157">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F163">
       <formula1>$M$2:$M$3</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G28" r:id="rId1"/>
-    <hyperlink ref="G30" r:id="rId2"/>
+    <hyperlink ref="G18" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="1" max="1" width="104.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>269</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -5718,30 +6061,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B272"/>
+  <dimension ref="A1:B312"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A272"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="119.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6981,125 +7324,325 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>247</v>
+        <v>437</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>248</v>
+        <v>445</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>249</v>
+        <v>446</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>250</v>
+        <v>447</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>251</v>
+        <v>448</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>252</v>
+        <v>449</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>253</v>
+        <v>450</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>254</v>
+        <v>451</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>255</v>
+        <v>452</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>256</v>
+        <v>453</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>257</v>
+        <v>454</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>258</v>
+        <v>455</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>259</v>
+        <v>456</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>260</v>
+        <v>457</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>261</v>
+        <v>458</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>262</v>
+        <v>459</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>263</v>
+        <v>460</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>264</v>
+        <v>461</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>265</v>
+        <v>462</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>266</v>
+        <v>463</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>267</v>
+        <v>464</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>268</v>
+        <v>465</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>269</v>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A272">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A3:A312">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
